--- a/packages/excel2js/in/T图片资源路径.xlsx
+++ b/packages/excel2js/in/T图片资源路径.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>id</t>
   </si>
@@ -352,6 +352,18 @@
   </si>
   <si>
     <t>Sprite/Card/IconCard/icon_card_5_2.png</t>
+  </si>
+  <si>
+    <t>icon_card_type_x</t>
+  </si>
+  <si>
+    <t>Sprite/Card/CardType/icon_cardType_%s.png</t>
+  </si>
+  <si>
+    <t>icon_card_number_x</t>
+  </si>
+  <si>
+    <t>Sprite/Card/CardNumber/icon_number_%s.png</t>
   </si>
 </sst>
 </file>
@@ -359,10 +371,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -374,13 +386,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -389,6 +394,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,39 +429,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -447,16 +454,45 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,15 +515,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,22 +528,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -526,187 +538,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,24 +729,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -762,6 +756,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -772,6 +775,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -803,17 +821,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,10 +837,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,147 +849,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1324,10 +1333,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1362,435 +1371,451 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:2">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="1" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
